--- a/data/trans_orig/Q5416-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5416-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23E97E88-EEE0-4A4C-A85B-13E8007B055C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2022505C-B098-42FB-BABE-12CEFB1C0A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AD765F94-43D7-4B84-835F-C861A878F840}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{181630FF-D1D2-4354-ABE7-61922FB97C3D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="155">
   <si>
     <t>Población según si es capaz de moverse por su casa en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -107,7 +107,7 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,55%</t>
+    <t>1,44%</t>
   </si>
   <si>
     <t>1,41%</t>
@@ -116,163 +116,157 @@
     <t>0,62%</t>
   </si>
   <si>
-    <t>2,46%</t>
+    <t>2,58%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
   </si>
   <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
+    <t>3,99%</t>
   </si>
   <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
   </si>
   <si>
     <t>4,72%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
   </si>
   <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
   </si>
   <si>
     <t>0,6%</t>
@@ -281,43 +275,43 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>1,5%</t>
+    <t>1,35%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
   </si>
   <si>
     <t>95,44%</t>
   </si>
   <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
   </si>
   <si>
     <t>91,03%</t>
   </si>
   <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
   </si>
   <si>
     <t>92,92%</t>
   </si>
   <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>Población según si es capaz de moverse por su casa en 2015 (Tasa respuesta: 19,52%)</t>
@@ -326,7 +320,10 @@
     <t>0,9%</t>
   </si>
   <si>
-    <t>0,41%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
   </si>
   <si>
     <t>1,7%</t>
@@ -335,13 +332,13 @@
     <t>0,81%</t>
   </si>
   <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
   </si>
   <si>
     <t>2,91%</t>
@@ -350,70 +347,67 @@
     <t>1,79%</t>
   </si>
   <si>
-    <t>4,45%</t>
+    <t>4,49%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>1,46%</t>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>0,91%</t>
+    <t>0,89%</t>
   </si>
   <si>
     <t>95,6%</t>
   </si>
   <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
   </si>
   <si>
     <t>92,34%</t>
   </si>
   <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
+    <t>90,1%</t>
   </si>
   <si>
     <t>93,75%</t>
   </si>
   <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
   </si>
   <si>
     <t>Población según si es capaz de moverse por su casa en 2023 (Tasa respuesta: 31,27%)</t>
@@ -422,52 +416,52 @@
     <t>0,77%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
+    <t>1,43%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>2,47%</t>
+    <t>2,52%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>0,88%</t>
+    <t>1,77%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
   </si>
   <si>
     <t>5,04%</t>
   </si>
   <si>
-    <t>6,54%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>1,0%</t>
+    <t>1,06%</t>
   </si>
   <si>
     <t>0,96%</t>
@@ -476,40 +470,40 @@
     <t>0,55%</t>
   </si>
   <si>
-    <t>1,59%</t>
+    <t>1,63%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
   </si>
   <si>
     <t>97,07%</t>
   </si>
   <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
   </si>
   <si>
     <t>94,25%</t>
   </si>
   <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
   </si>
 </sst>
 </file>
@@ -921,7 +915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8B7889-3636-46AB-8B92-DE934154022F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847DC9FE-EAAD-4C17-9DE6-F34747513C78}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2288,7 +2282,7 @@
         <v>38</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -2297,13 +2291,13 @@
         <v>6710</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -2312,13 +2306,13 @@
         <v>7578</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,13 +2327,13 @@
         <v>488553</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H32" s="7">
         <v>626</v>
@@ -2348,13 +2342,13 @@
         <v>639627</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M32" s="7">
         <v>1134</v>
@@ -2363,13 +2357,13 @@
         <v>1128180</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,13 +2378,13 @@
         <v>502466</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H33" s="7">
         <v>661</v>
@@ -2399,13 +2393,13 @@
         <v>676842</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M33" s="7">
         <v>1184</v>
@@ -2414,13 +2408,13 @@
         <v>1179308</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2545,7 +2539,7 @@
         <v>38</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -2554,13 +2548,13 @@
         <v>6710</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
@@ -2569,13 +2563,13 @@
         <v>7578</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,13 +2584,13 @@
         <v>488553</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H37" s="7">
         <v>626</v>
@@ -2605,13 +2599,13 @@
         <v>639627</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M37" s="7">
         <v>1134</v>
@@ -2620,13 +2614,13 @@
         <v>1128180</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2641,13 +2635,13 @@
         <v>502466</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H38" s="7">
         <v>661</v>
@@ -2656,13 +2650,13 @@
         <v>676842</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M38" s="7">
         <v>1184</v>
@@ -2671,18 +2665,18 @@
         <v>1179308</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2704,7 +2698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC6C1D4-B17B-41E0-98D1-E690589CE4D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28617CC8-B7E3-4B45-B43B-7F72276287F1}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2721,7 +2715,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3963,13 +3957,13 @@
         <v>9438</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H29" s="7">
         <v>24</v>
@@ -3978,13 +3972,13 @@
         <v>27149</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M29" s="7">
         <v>33</v>
@@ -3993,13 +3987,13 @@
         <v>36587</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +4008,13 @@
         <v>11754</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H30" s="7">
         <v>33</v>
@@ -4029,13 +4023,13 @@
         <v>35043</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M30" s="7">
         <v>44</v>
@@ -4044,13 +4038,13 @@
         <v>46797</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,13 +4059,13 @@
         <v>4355</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -4080,13 +4074,13 @@
         <v>4434</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -4095,13 +4089,13 @@
         <v>8789</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,13 +4110,13 @@
         <v>534090</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H32" s="7">
         <v>633</v>
@@ -4131,13 +4125,13 @@
         <v>676349</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M32" s="7">
         <v>1114</v>
@@ -4146,13 +4140,13 @@
         <v>1210439</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,13 +4161,13 @@
         <v>559637</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H33" s="7">
         <v>694</v>
@@ -4182,13 +4176,13 @@
         <v>742975</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M33" s="7">
         <v>1198</v>
@@ -4197,13 +4191,13 @@
         <v>1302612</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,13 +4214,13 @@
         <v>9438</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H34" s="7">
         <v>24</v>
@@ -4235,13 +4229,13 @@
         <v>27149</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M34" s="7">
         <v>33</v>
@@ -4250,13 +4244,13 @@
         <v>36587</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4271,13 +4265,13 @@
         <v>11754</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H35" s="7">
         <v>33</v>
@@ -4286,13 +4280,13 @@
         <v>35043</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M35" s="7">
         <v>44</v>
@@ -4301,13 +4295,13 @@
         <v>46797</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,13 +4316,13 @@
         <v>4355</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
@@ -4337,13 +4331,13 @@
         <v>4434</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
@@ -4352,13 +4346,13 @@
         <v>8789</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4367,13 @@
         <v>534090</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H37" s="7">
         <v>633</v>
@@ -4388,13 +4382,13 @@
         <v>676349</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M37" s="7">
         <v>1114</v>
@@ -4403,13 +4397,13 @@
         <v>1210439</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,13 +4418,13 @@
         <v>559637</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H38" s="7">
         <v>694</v>
@@ -4439,13 +4433,13 @@
         <v>742975</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M38" s="7">
         <v>1198</v>
@@ -4454,18 +4448,18 @@
         <v>1302612</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4487,7 +4481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49735C61-AAC8-4D30-A36F-C811EAFCF043}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325ACF47-5E4F-43DB-BF0E-853E1493509C}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4504,7 +4498,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5746,13 +5740,13 @@
         <v>5329</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -5761,13 +5755,13 @@
         <v>13205</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -5776,13 +5770,13 @@
         <v>18534</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,13 +5791,13 @@
         <v>17199</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H30" s="7">
         <v>35</v>
@@ -5812,13 +5806,13 @@
         <v>44077</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M30" s="7">
         <v>54</v>
@@ -5827,13 +5821,13 @@
         <v>61276</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,10 +5842,10 @@
         <v>3468</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>111</v>
@@ -5869,7 +5863,7 @@
         <v>38</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -5878,13 +5872,13 @@
         <v>5786</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5899,13 +5893,13 @@
         <v>565332</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H32" s="7">
         <v>608</v>
@@ -5914,13 +5908,13 @@
         <v>718330</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="L32" s="7" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="M32" s="7">
         <v>1206</v>
@@ -5929,13 +5923,13 @@
         <v>1283663</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5950,13 +5944,13 @@
         <v>591328</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H33" s="7">
         <v>655</v>
@@ -5965,13 +5959,13 @@
         <v>777931</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M33" s="7">
         <v>1282</v>
@@ -5980,13 +5974,13 @@
         <v>1369259</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,13 +5997,13 @@
         <v>5329</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H34" s="7">
         <v>10</v>
@@ -6018,13 +6012,13 @@
         <v>13205</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M34" s="7">
         <v>16</v>
@@ -6033,13 +6027,13 @@
         <v>18534</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6054,13 +6048,13 @@
         <v>17199</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H35" s="7">
         <v>35</v>
@@ -6069,13 +6063,13 @@
         <v>44077</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M35" s="7">
         <v>54</v>
@@ -6084,13 +6078,13 @@
         <v>61276</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6105,10 +6099,10 @@
         <v>3468</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>111</v>
@@ -6126,7 +6120,7 @@
         <v>38</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -6135,13 +6129,13 @@
         <v>5786</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6156,13 +6150,13 @@
         <v>565332</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H37" s="7">
         <v>608</v>
@@ -6171,13 +6165,13 @@
         <v>718330</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K37" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="L37" s="7" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="M37" s="7">
         <v>1206</v>
@@ -6186,13 +6180,13 @@
         <v>1283663</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6207,13 +6201,13 @@
         <v>591328</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H38" s="7">
         <v>655</v>
@@ -6222,13 +6216,13 @@
         <v>777931</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M38" s="7">
         <v>1282</v>
@@ -6237,18 +6231,18 @@
         <v>1369259</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -6270,7 +6264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7F276B-7039-4452-96E6-31327470F7A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2D56A8-A44D-49C5-B494-F1446435FECB}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6287,7 +6281,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7529,13 +7523,13 @@
         <v>5360</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H29" s="7">
         <v>30</v>
@@ -7544,13 +7538,13 @@
         <v>17017</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M29" s="7">
         <v>39</v>
@@ -7559,13 +7553,13 @@
         <v>22377</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7580,13 +7574,13 @@
         <v>12184</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H30" s="7">
         <v>89</v>
@@ -7595,13 +7589,13 @@
         <v>51679</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M30" s="7">
         <v>106</v>
@@ -7610,13 +7604,13 @@
         <v>63864</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7631,13 +7625,13 @@
         <v>2902</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -7646,13 +7640,13 @@
         <v>9895</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M31" s="7">
         <v>22</v>
@@ -7661,13 +7655,13 @@
         <v>12797</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7682,13 +7676,13 @@
         <v>676474</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H32" s="7">
         <v>1571</v>
@@ -7697,13 +7691,13 @@
         <v>947611</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M32" s="7">
         <v>2567</v>
@@ -7712,13 +7706,13 @@
         <v>1624086</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7733,13 +7727,13 @@
         <v>696921</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H33" s="7">
         <v>1707</v>
@@ -7748,13 +7742,13 @@
         <v>1026202</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M33" s="7">
         <v>2734</v>
@@ -7763,13 +7757,13 @@
         <v>1723124</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7786,13 +7780,13 @@
         <v>5360</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H34" s="7">
         <v>30</v>
@@ -7801,13 +7795,13 @@
         <v>17017</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M34" s="7">
         <v>39</v>
@@ -7816,13 +7810,13 @@
         <v>22377</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7837,13 +7831,13 @@
         <v>12184</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H35" s="7">
         <v>89</v>
@@ -7852,13 +7846,13 @@
         <v>51679</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M35" s="7">
         <v>106</v>
@@ -7867,13 +7861,13 @@
         <v>63864</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7888,13 +7882,13 @@
         <v>2902</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H36" s="7">
         <v>17</v>
@@ -7903,13 +7897,13 @@
         <v>9895</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M36" s="7">
         <v>22</v>
@@ -7918,13 +7912,13 @@
         <v>12797</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7939,13 +7933,13 @@
         <v>676474</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H37" s="7">
         <v>1571</v>
@@ -7954,13 +7948,13 @@
         <v>947611</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M37" s="7">
         <v>2567</v>
@@ -7969,13 +7963,13 @@
         <v>1624086</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7990,13 +7984,13 @@
         <v>696921</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H38" s="7">
         <v>1707</v>
@@ -8005,13 +7999,13 @@
         <v>1026202</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M38" s="7">
         <v>2734</v>
@@ -8020,18 +8014,18 @@
         <v>1723124</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5416-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5416-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2022505C-B098-42FB-BABE-12CEFB1C0A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09326150-D4F0-43D9-B813-9C5BD3C42514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{181630FF-D1D2-4354-ABE7-61922FB97C3D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{87F6A5F2-65C2-4838-9017-28054F800650}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="153">
   <si>
     <t>Población según si es capaz de moverse por su casa en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -104,241 +104,244 @@
     <t>0,54%</t>
   </si>
   <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
   </si>
   <si>
     <t>2,91%</t>
@@ -347,39 +350,36 @@
     <t>1,79%</t>
   </si>
   <si>
-    <t>4,49%</t>
+    <t>4,53%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
     <t>0,3%</t>
   </si>
   <si>
+    <t>1,03%</t>
+  </si>
+  <si>
     <t>0,42%</t>
   </si>
   <si>
@@ -389,33 +389,33 @@
     <t>95,6%</t>
   </si>
   <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
   </si>
   <si>
     <t>92,34%</t>
   </si>
   <si>
-    <t>90,1%</t>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
   </si>
   <si>
     <t>93,75%</t>
   </si>
   <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
   </si>
   <si>
     <t>Población según si es capaz de moverse por su casa en 2023 (Tasa respuesta: 31,27%)</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
     <t>1,43%</t>
   </si>
   <si>
@@ -431,9 +431,6 @@
     <t>1,77%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
     <t>1,07%</t>
   </si>
   <si>
@@ -495,9 +492,6 @@
   </si>
   <si>
     <t>94,56%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
   </si>
   <si>
     <t>93,13%</t>
@@ -915,7 +909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{847DC9FE-EAAD-4C17-9DE6-F34747513C78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6384FBAE-DD32-47A5-A1F3-D9B88CAF2BFA}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2207,10 +2201,10 @@
         <v>26</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,13 +2219,13 @@
         <v>10320</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -2240,13 +2234,13 @@
         <v>20990</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="M30" s="7">
         <v>30</v>
@@ -2255,13 +2249,13 @@
         <v>31310</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2276,13 +2270,13 @@
         <v>868</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -2291,13 +2285,13 @@
         <v>6710</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -2306,13 +2300,13 @@
         <v>7578</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,13 +2321,13 @@
         <v>488553</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H32" s="7">
         <v>626</v>
@@ -2342,13 +2336,13 @@
         <v>639627</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M32" s="7">
         <v>1134</v>
@@ -2357,13 +2351,13 @@
         <v>1128180</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,13 +2372,13 @@
         <v>502466</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H33" s="7">
         <v>661</v>
@@ -2393,13 +2387,13 @@
         <v>676842</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M33" s="7">
         <v>1184</v>
@@ -2408,13 +2402,13 @@
         <v>1179308</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2464,10 +2458,10 @@
         <v>26</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,13 +2476,13 @@
         <v>10320</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="H35" s="7">
         <v>19</v>
@@ -2497,13 +2491,13 @@
         <v>20990</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="M35" s="7">
         <v>30</v>
@@ -2512,13 +2506,13 @@
         <v>31310</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,13 +2527,13 @@
         <v>868</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -2548,13 +2542,13 @@
         <v>6710</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
@@ -2563,13 +2557,13 @@
         <v>7578</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,13 +2578,13 @@
         <v>488553</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H37" s="7">
         <v>626</v>
@@ -2599,13 +2593,13 @@
         <v>639627</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M37" s="7">
         <v>1134</v>
@@ -2614,13 +2608,13 @@
         <v>1128180</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,13 +2629,13 @@
         <v>502466</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H38" s="7">
         <v>661</v>
@@ -2650,13 +2644,13 @@
         <v>676842</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M38" s="7">
         <v>1184</v>
@@ -2665,18 +2659,18 @@
         <v>1179308</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2698,7 +2692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28617CC8-B7E3-4B45-B43B-7F72276287F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990A096A-72F4-468C-A229-FE009EF45E24}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2715,7 +2709,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3957,13 +3951,13 @@
         <v>9438</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H29" s="7">
         <v>24</v>
@@ -3972,13 +3966,13 @@
         <v>27149</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M29" s="7">
         <v>33</v>
@@ -3987,13 +3981,13 @@
         <v>36587</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +4002,13 @@
         <v>11754</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H30" s="7">
         <v>33</v>
@@ -4023,13 +4017,13 @@
         <v>35043</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M30" s="7">
         <v>44</v>
@@ -4038,13 +4032,13 @@
         <v>46797</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,13 +4053,13 @@
         <v>4355</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -4074,13 +4068,13 @@
         <v>4434</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -4161,13 +4155,13 @@
         <v>559637</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H33" s="7">
         <v>694</v>
@@ -4176,13 +4170,13 @@
         <v>742975</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M33" s="7">
         <v>1198</v>
@@ -4191,13 +4185,13 @@
         <v>1302612</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4208,13 @@
         <v>9438</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H34" s="7">
         <v>24</v>
@@ -4229,13 +4223,13 @@
         <v>27149</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M34" s="7">
         <v>33</v>
@@ -4244,13 +4238,13 @@
         <v>36587</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4259,13 @@
         <v>11754</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H35" s="7">
         <v>33</v>
@@ -4280,13 +4274,13 @@
         <v>35043</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M35" s="7">
         <v>44</v>
@@ -4295,13 +4289,13 @@
         <v>46797</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4310,13 @@
         <v>4355</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
@@ -4331,13 +4325,13 @@
         <v>4434</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
@@ -4418,13 +4412,13 @@
         <v>559637</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H38" s="7">
         <v>694</v>
@@ -4433,13 +4427,13 @@
         <v>742975</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M38" s="7">
         <v>1198</v>
@@ -4448,18 +4442,18 @@
         <v>1302612</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4481,7 +4475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325ACF47-5E4F-43DB-BF0E-853E1493509C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BC8777-B37D-40ED-A235-BF3FACDCC0A5}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5770,13 +5764,13 @@
         <v>18534</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,13 +5785,13 @@
         <v>17199</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H30" s="7">
         <v>35</v>
@@ -5806,13 +5800,13 @@
         <v>44077</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M30" s="7">
         <v>54</v>
@@ -5821,13 +5815,13 @@
         <v>61276</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,13 +5836,13 @@
         <v>3468</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -5857,13 +5851,13 @@
         <v>2318</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -5875,7 +5869,7 @@
         <v>113</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>114</v>
@@ -5914,7 +5908,7 @@
         <v>119</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="M32" s="7">
         <v>1206</v>
@@ -5923,13 +5917,13 @@
         <v>1283663</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,13 +5938,13 @@
         <v>591328</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H33" s="7">
         <v>655</v>
@@ -5959,13 +5953,13 @@
         <v>777931</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M33" s="7">
         <v>1282</v>
@@ -5974,13 +5968,13 @@
         <v>1369259</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,13 +6021,13 @@
         <v>18534</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6048,13 +6042,13 @@
         <v>17199</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H35" s="7">
         <v>35</v>
@@ -6063,13 +6057,13 @@
         <v>44077</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M35" s="7">
         <v>54</v>
@@ -6078,13 +6072,13 @@
         <v>61276</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6099,13 +6093,13 @@
         <v>3468</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -6114,13 +6108,13 @@
         <v>2318</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -6132,7 +6126,7 @@
         <v>113</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>114</v>
@@ -6171,7 +6165,7 @@
         <v>119</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="M37" s="7">
         <v>1206</v>
@@ -6180,13 +6174,13 @@
         <v>1283663</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6201,13 +6195,13 @@
         <v>591328</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H38" s="7">
         <v>655</v>
@@ -6216,13 +6210,13 @@
         <v>777931</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M38" s="7">
         <v>1282</v>
@@ -6231,18 +6225,18 @@
         <v>1369259</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -6264,7 +6258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2D56A8-A44D-49C5-B494-F1446435FECB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB807BC0-2D79-43A5-8101-F287BBCB765B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6281,7 +6275,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7523,10 +7517,10 @@
         <v>5360</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>125</v>
@@ -7574,13 +7568,13 @@
         <v>12184</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H30" s="7">
         <v>89</v>
@@ -7589,13 +7583,13 @@
         <v>51679</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M30" s="7">
         <v>106</v>
@@ -7604,13 +7598,13 @@
         <v>63864</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7628,10 +7622,10 @@
         <v>113</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -7640,13 +7634,13 @@
         <v>9895</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M31" s="7">
         <v>22</v>
@@ -7655,13 +7649,13 @@
         <v>12797</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7676,13 +7670,13 @@
         <v>676474</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H32" s="7">
         <v>1571</v>
@@ -7694,10 +7688,10 @@
         <v>118</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M32" s="7">
         <v>2567</v>
@@ -7706,13 +7700,13 @@
         <v>1624086</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7727,13 +7721,13 @@
         <v>696921</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H33" s="7">
         <v>1707</v>
@@ -7742,13 +7736,13 @@
         <v>1026202</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M33" s="7">
         <v>2734</v>
@@ -7757,13 +7751,13 @@
         <v>1723124</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7780,10 +7774,10 @@
         <v>5360</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>125</v>
@@ -7831,13 +7825,13 @@
         <v>12184</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H35" s="7">
         <v>89</v>
@@ -7846,13 +7840,13 @@
         <v>51679</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M35" s="7">
         <v>106</v>
@@ -7861,13 +7855,13 @@
         <v>63864</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7885,10 +7879,10 @@
         <v>113</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H36" s="7">
         <v>17</v>
@@ -7897,13 +7891,13 @@
         <v>9895</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M36" s="7">
         <v>22</v>
@@ -7912,13 +7906,13 @@
         <v>12797</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7933,13 +7927,13 @@
         <v>676474</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H37" s="7">
         <v>1571</v>
@@ -7951,10 +7945,10 @@
         <v>118</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M37" s="7">
         <v>2567</v>
@@ -7963,13 +7957,13 @@
         <v>1624086</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7984,13 +7978,13 @@
         <v>696921</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H38" s="7">
         <v>1707</v>
@@ -7999,13 +7993,13 @@
         <v>1026202</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M38" s="7">
         <v>2734</v>
@@ -8014,18 +8008,18 @@
         <v>1723124</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5416-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5416-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09326150-D4F0-43D9-B813-9C5BD3C42514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{243578B5-1D11-4BB9-95AF-ADDBBFC468BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{87F6A5F2-65C2-4838-9017-28054F800650}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A7395F46-DD99-4FAA-8287-D31740B47CEC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="157">
   <si>
     <t>Población según si es capaz de moverse por su casa en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -104,400 +104,412 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de moverse por su casa en 2023 (Tasa respuesta: 31,27%)</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>94,25%</t>
   </si>
   <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de moverse por su casa en 2023 (Tasa respuesta: 31,27%)</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
   </si>
 </sst>
 </file>
@@ -909,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6384FBAE-DD32-47A5-A1F3-D9B88CAF2BFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92537E9-E7CC-4C86-9EAE-BD4E1E8ADD9F}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2201,10 +2213,10 @@
         <v>26</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2219,13 +2231,13 @@
         <v>10320</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H30" s="7">
         <v>19</v>
@@ -2234,13 +2246,13 @@
         <v>20990</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M30" s="7">
         <v>30</v>
@@ -2249,13 +2261,13 @@
         <v>31310</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,13 +2282,13 @@
         <v>868</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -2458,10 +2470,10 @@
         <v>26</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2476,13 +2488,13 @@
         <v>10320</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H35" s="7">
         <v>19</v>
@@ -2491,13 +2503,13 @@
         <v>20990</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M35" s="7">
         <v>30</v>
@@ -2506,13 +2518,13 @@
         <v>31310</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2527,13 +2539,13 @@
         <v>868</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -2692,7 +2704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990A096A-72F4-468C-A229-FE009EF45E24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1EF61D-AFF6-4E28-947F-12D137D6DF0E}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4005,10 +4017,10 @@
         <v>66</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H30" s="7">
         <v>33</v>
@@ -4017,13 +4029,13 @@
         <v>35043</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M30" s="7">
         <v>44</v>
@@ -4032,13 +4044,13 @@
         <v>46797</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,13 +4065,13 @@
         <v>4355</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -4068,13 +4080,13 @@
         <v>4434</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="M31" s="7">
         <v>7</v>
@@ -4083,13 +4095,13 @@
         <v>8789</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4116,13 @@
         <v>534090</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H32" s="7">
         <v>633</v>
@@ -4119,13 +4131,13 @@
         <v>676349</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M32" s="7">
         <v>1114</v>
@@ -4134,13 +4146,13 @@
         <v>1210439</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,10 +4274,10 @@
         <v>66</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H35" s="7">
         <v>33</v>
@@ -4274,13 +4286,13 @@
         <v>35043</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M35" s="7">
         <v>44</v>
@@ -4289,13 +4301,13 @@
         <v>46797</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4322,13 @@
         <v>4355</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
@@ -4325,13 +4337,13 @@
         <v>4434</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
@@ -4340,13 +4352,13 @@
         <v>8789</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,13 +4373,13 @@
         <v>534090</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H37" s="7">
         <v>633</v>
@@ -4376,13 +4388,13 @@
         <v>676349</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M37" s="7">
         <v>1114</v>
@@ -4391,13 +4403,13 @@
         <v>1210439</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,7 +4487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BC8777-B37D-40ED-A235-BF3FACDCC0A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B77FD3-C89B-42FA-8DFB-055711EE3308}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4492,7 +4504,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5734,13 +5746,13 @@
         <v>5329</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -5749,13 +5761,13 @@
         <v>13205</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -5764,10 +5776,10 @@
         <v>18534</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>100</v>
@@ -5839,10 +5851,10 @@
         <v>110</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -5851,13 +5863,13 @@
         <v>2318</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -5866,13 +5878,13 @@
         <v>5786</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,13 +5899,13 @@
         <v>565332</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H32" s="7">
         <v>608</v>
@@ -5902,13 +5914,13 @@
         <v>718330</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M32" s="7">
         <v>1206</v>
@@ -5917,13 +5929,13 @@
         <v>1283663</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5991,13 +6003,13 @@
         <v>5329</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="H34" s="7">
         <v>10</v>
@@ -6006,13 +6018,13 @@
         <v>13205</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M34" s="7">
         <v>16</v>
@@ -6021,10 +6033,10 @@
         <v>18534</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>100</v>
@@ -6096,10 +6108,10 @@
         <v>110</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -6108,13 +6120,13 @@
         <v>2318</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -6123,13 +6135,13 @@
         <v>5786</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6144,13 +6156,13 @@
         <v>565332</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H37" s="7">
         <v>608</v>
@@ -6159,13 +6171,13 @@
         <v>718330</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M37" s="7">
         <v>1206</v>
@@ -6174,13 +6186,13 @@
         <v>1283663</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6258,7 +6270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB807BC0-2D79-43A5-8101-F287BBCB765B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693E7141-9D3D-47B0-B126-9AAB5DE3CE51}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6275,7 +6287,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7517,13 +7529,13 @@
         <v>5360</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H29" s="7">
         <v>30</v>
@@ -7532,13 +7544,13 @@
         <v>17017</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M29" s="7">
         <v>39</v>
@@ -7547,13 +7559,13 @@
         <v>22377</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7568,13 +7580,13 @@
         <v>12184</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H30" s="7">
         <v>89</v>
@@ -7583,13 +7595,13 @@
         <v>51679</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M30" s="7">
         <v>106</v>
@@ -7598,13 +7610,13 @@
         <v>63864</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7619,13 +7631,13 @@
         <v>2902</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -7634,13 +7646,13 @@
         <v>9895</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M31" s="7">
         <v>22</v>
@@ -7649,13 +7661,13 @@
         <v>12797</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7670,13 +7682,13 @@
         <v>676474</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H32" s="7">
         <v>1571</v>
@@ -7685,13 +7697,13 @@
         <v>947611</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M32" s="7">
         <v>2567</v>
@@ -7700,13 +7712,13 @@
         <v>1624086</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7774,13 +7786,13 @@
         <v>5360</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H34" s="7">
         <v>30</v>
@@ -7789,13 +7801,13 @@
         <v>17017</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M34" s="7">
         <v>39</v>
@@ -7804,13 +7816,13 @@
         <v>22377</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7825,13 +7837,13 @@
         <v>12184</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H35" s="7">
         <v>89</v>
@@ -7840,13 +7852,13 @@
         <v>51679</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M35" s="7">
         <v>106</v>
@@ -7855,13 +7867,13 @@
         <v>63864</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7876,13 +7888,13 @@
         <v>2902</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H36" s="7">
         <v>17</v>
@@ -7891,13 +7903,13 @@
         <v>9895</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M36" s="7">
         <v>22</v>
@@ -7906,13 +7918,13 @@
         <v>12797</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7927,13 +7939,13 @@
         <v>676474</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H37" s="7">
         <v>1571</v>
@@ -7942,13 +7954,13 @@
         <v>947611</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M37" s="7">
         <v>2567</v>
@@ -7957,13 +7969,13 @@
         <v>1624086</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5416-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5416-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{243578B5-1D11-4BB9-95AF-ADDBBFC468BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A013583B-6ECA-4C6F-A17D-9FC0B33B762F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A7395F46-DD99-4FAA-8287-D31740B47CEC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{64A8FB67-A023-4FD4-8F02-92671081CD22}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="355">
   <si>
     <t>Población según si es capaz de moverse por su casa en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Necesita ayuda</t>
@@ -86,19 +86,220 @@
     <t>Sin ayuda</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>0,54%</t>
@@ -155,18 +356,9 @@
     <t>3,68%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
     <t>0,64%</t>
   </si>
   <si>
@@ -203,21 +395,198 @@
     <t>96,7%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
     <t>Población según si es capaz de moverse por su casa en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
     <t>3,0%</t>
   </si>
   <si>
@@ -278,18 +647,6 @@
     <t>0,6%</t>
   </si>
   <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
     <t>1,44%</t>
   </si>
   <si>
@@ -323,12 +680,159 @@
     <t>Población según si es capaz de moverse por su casa en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
     <t>1,7%</t>
   </si>
   <si>
@@ -347,18 +851,12 @@
     <t>2,91%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
     <t>4,45%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
     <t>7,86%</t>
   </si>
   <si>
@@ -368,24 +866,15 @@
     <t>3,49%</t>
   </si>
   <si>
-    <t>5,89%</t>
-  </si>
-  <si>
     <t>0,59%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
     <t>0,91%</t>
   </si>
   <si>
@@ -419,97 +908,202 @@
     <t>Población según si es capaz de moverse por su casa en 2023 (Tasa respuesta: 31,27%)</t>
   </si>
   <si>
+    <t>0,86%</t>
+  </si>
+  <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
   </si>
 </sst>
 </file>
@@ -921,8 +1515,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92537E9-E7CC-4C86-9EAE-BD4E1E8ADD9F}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6E50B4-1C6E-438A-B020-86D2F258B244}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2174,10 +2768,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>2725</v>
+        <v>1894</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>20</v>
@@ -2189,10 +2783,10 @@
         <v>22</v>
       </c>
       <c r="H29" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I29" s="7">
-        <v>9515</v>
+        <v>3727</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>23</v>
@@ -2204,19 +2798,19 @@
         <v>25</v>
       </c>
       <c r="M29" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N29" s="7">
-        <v>12240</v>
+        <v>5621</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,49 +2819,49 @@
         <v>12</v>
       </c>
       <c r="C30" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D30" s="7">
-        <v>10320</v>
+        <v>2730</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>4</v>
+      </c>
+      <c r="I30" s="7">
+        <v>3607</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="7">
-        <v>19</v>
-      </c>
-      <c r="I30" s="7">
-        <v>20990</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>7</v>
+      </c>
+      <c r="N30" s="7">
+        <v>6337</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M30" s="7">
-        <v>30</v>
-      </c>
-      <c r="N30" s="7">
-        <v>31310</v>
-      </c>
-      <c r="O30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P30" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="Q30" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2276,49 +2870,49 @@
         <v>13</v>
       </c>
       <c r="C31" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="7">
-        <v>868</v>
+        <v>0</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3258</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="7">
-        <v>6</v>
-      </c>
-      <c r="I31" s="7">
-        <v>6710</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>3</v>
+      </c>
+      <c r="N31" s="7">
+        <v>3258</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M31" s="7">
-        <v>7</v>
-      </c>
-      <c r="N31" s="7">
-        <v>7578</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,49 +2921,49 @@
         <v>14</v>
       </c>
       <c r="C32" s="7">
-        <v>508</v>
+        <v>298</v>
       </c>
       <c r="D32" s="7">
-        <v>488553</v>
+        <v>287959</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="H32" s="7">
+        <v>360</v>
+      </c>
+      <c r="I32" s="7">
+        <v>332342</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H32" s="7">
-        <v>626</v>
-      </c>
-      <c r="I32" s="7">
-        <v>639627</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>658</v>
+      </c>
+      <c r="N32" s="7">
+        <v>620302</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M32" s="7">
-        <v>1134</v>
-      </c>
-      <c r="N32" s="7">
-        <v>1128180</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,102 +2972,102 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D33" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H33" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I33" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M33" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N33" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>2725</v>
+        <v>831</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="H34" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I34" s="7">
-        <v>9515</v>
+        <v>5788</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="M34" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N34" s="7">
-        <v>12240</v>
+        <v>6619</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,49 +3076,49 @@
         <v>12</v>
       </c>
       <c r="C35" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D35" s="7">
-        <v>10320</v>
+        <v>7591</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="H35" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I35" s="7">
-        <v>20990</v>
+        <v>17383</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="M35" s="7">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N35" s="7">
-        <v>31310</v>
+        <v>24973</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,43 +3133,43 @@
         <v>868</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="G36" s="7" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="H36" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I36" s="7">
-        <v>6710</v>
+        <v>3453</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="M36" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N36" s="7">
-        <v>7578</v>
+        <v>4321</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2584,49 +3178,49 @@
         <v>14</v>
       </c>
       <c r="C37" s="7">
-        <v>508</v>
+        <v>210</v>
       </c>
       <c r="D37" s="7">
-        <v>488553</v>
+        <v>200594</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="H37" s="7">
-        <v>626</v>
+        <v>266</v>
       </c>
       <c r="I37" s="7">
-        <v>639627</v>
+        <v>307285</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="M37" s="7">
-        <v>1134</v>
+        <v>476</v>
       </c>
       <c r="N37" s="7">
-        <v>1128180</v>
+        <v>507878</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,63 +3229,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>220</v>
+      </c>
+      <c r="D38" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="7">
+        <v>290</v>
+      </c>
+      <c r="I38" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M38" s="7">
+        <v>510</v>
+      </c>
+      <c r="N38" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>3</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2725</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H39" s="7">
+        <v>10</v>
+      </c>
+      <c r="I39" s="7">
+        <v>9515</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M39" s="7">
+        <v>13</v>
+      </c>
+      <c r="N39" s="7">
+        <v>12240</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="7">
+        <v>11</v>
+      </c>
+      <c r="D40" s="7">
+        <v>10320</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H40" s="7">
+        <v>19</v>
+      </c>
+      <c r="I40" s="7">
+        <v>20990</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M40" s="7">
+        <v>30</v>
+      </c>
+      <c r="N40" s="7">
+        <v>31310</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1</v>
+      </c>
+      <c r="D41" s="7">
+        <v>868</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H41" s="7">
+        <v>6</v>
+      </c>
+      <c r="I41" s="7">
+        <v>6710</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M41" s="7">
+        <v>7</v>
+      </c>
+      <c r="N41" s="7">
+        <v>7578</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="7">
+        <v>508</v>
+      </c>
+      <c r="D42" s="7">
+        <v>488553</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H42" s="7">
+        <v>626</v>
+      </c>
+      <c r="I42" s="7">
+        <v>639627</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M42" s="7">
+        <v>1134</v>
+      </c>
+      <c r="N42" s="7">
+        <v>1128180</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>523</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>502466</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" s="7">
         <v>661</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>676842</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M43" s="7">
         <v>1184</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>1179308</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>55</v>
+      <c r="O43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2704,8 +3556,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1EF61D-AFF6-4E28-947F-12D137D6DF0E}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A403D4-C7FF-4E91-8B3F-97B683CEA0F6}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2721,7 +3573,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3957,49 +4809,49 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D29" s="7">
-        <v>9438</v>
+        <v>4051</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="H29" s="7">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="I29" s="7">
-        <v>27149</v>
+        <v>2940</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="M29" s="7">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="N29" s="7">
-        <v>36587</v>
+        <v>6991</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,49 +4860,49 @@
         <v>12</v>
       </c>
       <c r="C30" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D30" s="7">
-        <v>11754</v>
+        <v>2083</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="H30" s="7">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I30" s="7">
-        <v>35043</v>
+        <v>7878</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="M30" s="7">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="N30" s="7">
-        <v>46797</v>
+        <v>9961</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,49 +4911,49 @@
         <v>13</v>
       </c>
       <c r="C31" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>4355</v>
+        <v>1101</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="H31" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>4434</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="M31" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>8789</v>
+        <v>1101</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,49 +4962,49 @@
         <v>14</v>
       </c>
       <c r="C32" s="7">
-        <v>481</v>
+        <v>275</v>
       </c>
       <c r="D32" s="7">
-        <v>534090</v>
+        <v>302552</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="H32" s="7">
-        <v>633</v>
+        <v>333</v>
       </c>
       <c r="I32" s="7">
-        <v>676349</v>
+        <v>343177</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="M32" s="7">
-        <v>1114</v>
+        <v>608</v>
       </c>
       <c r="N32" s="7">
-        <v>1210439</v>
+        <v>645729</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,102 +5013,102 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D33" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H33" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I33" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M33" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N33" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D34" s="7">
-        <v>9438</v>
+        <v>5387</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
       <c r="H34" s="7">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I34" s="7">
-        <v>27149</v>
+        <v>24209</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="M34" s="7">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N34" s="7">
-        <v>36587</v>
+        <v>29596</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,49 +5117,49 @@
         <v>12</v>
       </c>
       <c r="C35" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D35" s="7">
-        <v>11754</v>
+        <v>9672</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="H35" s="7">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I35" s="7">
-        <v>35043</v>
+        <v>27164</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="M35" s="7">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N35" s="7">
-        <v>46797</v>
+        <v>36836</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,19 +5168,19 @@
         <v>13</v>
       </c>
       <c r="C36" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="7">
-        <v>4355</v>
+        <v>3254</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="H36" s="7">
         <v>4</v>
@@ -4337,28 +5189,28 @@
         <v>4434</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="M36" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N36" s="7">
-        <v>8789</v>
+        <v>7688</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,49 +5219,49 @@
         <v>14</v>
       </c>
       <c r="C37" s="7">
-        <v>481</v>
+        <v>206</v>
       </c>
       <c r="D37" s="7">
-        <v>534090</v>
+        <v>231538</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>85</v>
+        <v>173</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>86</v>
+        <v>174</v>
       </c>
       <c r="H37" s="7">
-        <v>633</v>
+        <v>300</v>
       </c>
       <c r="I37" s="7">
-        <v>676349</v>
+        <v>333172</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="M37" s="7">
-        <v>1114</v>
+        <v>506</v>
       </c>
       <c r="N37" s="7">
-        <v>1210439</v>
+        <v>564709</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>91</v>
+        <v>179</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4418,63 +5270,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>222</v>
+      </c>
+      <c r="D38" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="7">
+        <v>350</v>
+      </c>
+      <c r="I38" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M38" s="7">
+        <v>572</v>
+      </c>
+      <c r="N38" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>9</v>
+      </c>
+      <c r="D39" s="7">
+        <v>9438</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H39" s="7">
+        <v>24</v>
+      </c>
+      <c r="I39" s="7">
+        <v>27149</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M39" s="7">
+        <v>33</v>
+      </c>
+      <c r="N39" s="7">
+        <v>36587</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="7">
+        <v>11</v>
+      </c>
+      <c r="D40" s="7">
+        <v>11754</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H40" s="7">
+        <v>33</v>
+      </c>
+      <c r="I40" s="7">
+        <v>35043</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="M40" s="7">
+        <v>44</v>
+      </c>
+      <c r="N40" s="7">
+        <v>46797</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7">
+        <v>3</v>
+      </c>
+      <c r="D41" s="7">
+        <v>4355</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H41" s="7">
+        <v>4</v>
+      </c>
+      <c r="I41" s="7">
+        <v>4434</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M41" s="7">
+        <v>7</v>
+      </c>
+      <c r="N41" s="7">
+        <v>8789</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="7">
+        <v>481</v>
+      </c>
+      <c r="D42" s="7">
+        <v>534090</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H42" s="7">
+        <v>633</v>
+      </c>
+      <c r="I42" s="7">
+        <v>676349</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M42" s="7">
+        <v>1114</v>
+      </c>
+      <c r="N42" s="7">
+        <v>1210439</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>504</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>559637</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" s="7">
         <v>694</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>742975</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M43" s="7">
         <v>1198</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>1302612</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>55</v>
+      <c r="O43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4487,8 +5597,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B77FD3-C89B-42FA-8DFB-055711EE3308}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BC2B910-1B38-4FCA-BBB6-EB57DF90AFF5}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4504,7 +5614,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5740,49 +6850,49 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>5329</v>
+        <v>999</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="H29" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I29" s="7">
-        <v>13205</v>
+        <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="M29" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N29" s="7">
-        <v>18534</v>
+        <v>999</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>99</v>
+        <v>214</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>100</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,49 +6901,49 @@
         <v>12</v>
       </c>
       <c r="C30" s="7">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D30" s="7">
-        <v>17199</v>
+        <v>3616</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>103</v>
+        <v>216</v>
       </c>
       <c r="H30" s="7">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="I30" s="7">
-        <v>44077</v>
+        <v>10587</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>104</v>
+        <v>217</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>106</v>
+        <v>218</v>
       </c>
       <c r="M30" s="7">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="N30" s="7">
-        <v>61276</v>
+        <v>14203</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>107</v>
+        <v>219</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,49 +6952,49 @@
         <v>13</v>
       </c>
       <c r="C31" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>3468</v>
+        <v>959</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="H31" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>2318</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="M31" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N31" s="7">
-        <v>5786</v>
+        <v>959</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>114</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>115</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5893,49 +7003,49 @@
         <v>14</v>
       </c>
       <c r="C32" s="7">
-        <v>598</v>
+        <v>320</v>
       </c>
       <c r="D32" s="7">
-        <v>565332</v>
+        <v>328756</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>116</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>118</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
-        <v>608</v>
+        <v>345</v>
       </c>
       <c r="I32" s="7">
-        <v>718330</v>
+        <v>367175</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>119</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>120</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>121</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
-        <v>1206</v>
+        <v>665</v>
       </c>
       <c r="N32" s="7">
-        <v>1283663</v>
+        <v>695931</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>122</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>123</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>124</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,72 +7054,72 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D33" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H33" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I33" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M33" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N33" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34" s="7">
-        <v>5329</v>
+        <v>4330</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>94</v>
+        <v>232</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>95</v>
+        <v>233</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="H34" s="7">
         <v>10</v>
@@ -6018,28 +7128,28 @@
         <v>13205</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>97</v>
+        <v>213</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>98</v>
+        <v>235</v>
       </c>
       <c r="M34" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N34" s="7">
-        <v>18534</v>
+        <v>17535</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>99</v>
+        <v>236</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>100</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6048,49 +7158,49 @@
         <v>12</v>
       </c>
       <c r="C35" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D35" s="7">
-        <v>17199</v>
+        <v>13583</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>102</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>103</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I35" s="7">
-        <v>44077</v>
+        <v>33490</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>104</v>
+        <v>242</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>105</v>
+        <v>243</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="M35" s="7">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="N35" s="7">
-        <v>61276</v>
+        <v>47073</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>107</v>
+        <v>245</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>108</v>
+        <v>246</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>109</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6099,19 +7209,19 @@
         <v>13</v>
       </c>
       <c r="C36" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" s="7">
-        <v>3468</v>
+        <v>2509</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>110</v>
+        <v>248</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>111</v>
+        <v>249</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -6120,28 +7230,28 @@
         <v>2318</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>113</v>
+        <v>251</v>
       </c>
       <c r="M36" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N36" s="7">
-        <v>5786</v>
+        <v>4827</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>114</v>
+        <v>252</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>115</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6150,49 +7260,49 @@
         <v>14</v>
       </c>
       <c r="C37" s="7">
-        <v>598</v>
+        <v>278</v>
       </c>
       <c r="D37" s="7">
-        <v>565332</v>
+        <v>236576</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>116</v>
+        <v>254</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>117</v>
+        <v>255</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>118</v>
+        <v>256</v>
       </c>
       <c r="H37" s="7">
-        <v>608</v>
+        <v>263</v>
       </c>
       <c r="I37" s="7">
-        <v>718330</v>
+        <v>351156</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>119</v>
+        <v>257</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>120</v>
+        <v>258</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>121</v>
+        <v>259</v>
       </c>
       <c r="M37" s="7">
-        <v>1206</v>
+        <v>541</v>
       </c>
       <c r="N37" s="7">
-        <v>1283663</v>
+        <v>587732</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>122</v>
+        <v>260</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>123</v>
+        <v>261</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>124</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6201,63 +7311,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>302</v>
+      </c>
+      <c r="D38" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="7">
+        <v>301</v>
+      </c>
+      <c r="I38" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M38" s="7">
+        <v>603</v>
+      </c>
+      <c r="N38" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>6</v>
+      </c>
+      <c r="D39" s="7">
+        <v>5329</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" s="7">
+        <v>10</v>
+      </c>
+      <c r="I39" s="7">
+        <v>13205</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M39" s="7">
+        <v>16</v>
+      </c>
+      <c r="N39" s="7">
+        <v>18534</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="7">
+        <v>19</v>
+      </c>
+      <c r="D40" s="7">
+        <v>17199</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H40" s="7">
+        <v>35</v>
+      </c>
+      <c r="I40" s="7">
+        <v>44077</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M40" s="7">
+        <v>54</v>
+      </c>
+      <c r="N40" s="7">
+        <v>61276</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7">
+        <v>4</v>
+      </c>
+      <c r="D41" s="7">
+        <v>3468</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H41" s="7">
+        <v>2</v>
+      </c>
+      <c r="I41" s="7">
+        <v>2318</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="M41" s="7">
+        <v>6</v>
+      </c>
+      <c r="N41" s="7">
+        <v>5786</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="7">
+        <v>598</v>
+      </c>
+      <c r="D42" s="7">
+        <v>565332</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H42" s="7">
+        <v>608</v>
+      </c>
+      <c r="I42" s="7">
+        <v>718330</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M42" s="7">
+        <v>1206</v>
+      </c>
+      <c r="N42" s="7">
+        <v>1283663</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>627</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>591328</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" s="7">
         <v>655</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>777931</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M43" s="7">
         <v>1282</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>1369259</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>55</v>
+      <c r="O43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6270,8 +7638,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693E7141-9D3D-47B0-B126-9AAB5DE3CE51}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC3FF73-AE80-4FD3-A4BC-E8AE62098298}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6287,7 +7655,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>288</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7523,49 +8891,49 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>5360</v>
+        <v>632</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>128</v>
+        <v>289</v>
       </c>
       <c r="H29" s="7">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I29" s="7">
-        <v>17017</v>
+        <v>1561</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="M29" s="7">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="N29" s="7">
-        <v>22377</v>
+        <v>2194</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>131</v>
+        <v>291</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>132</v>
+        <v>292</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7574,49 +8942,49 @@
         <v>12</v>
       </c>
       <c r="C30" s="7">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D30" s="7">
-        <v>12184</v>
+        <v>3218</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>133</v>
+        <v>293</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="H30" s="7">
+        <v>19</v>
+      </c>
+      <c r="I30" s="7">
+        <v>9403</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="I30" s="7">
-        <v>51679</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="K30" s="7" t="s">
-        <v>70</v>
+        <v>294</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
       <c r="M30" s="7">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="N30" s="7">
-        <v>63864</v>
+        <v>12621</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>138</v>
+        <v>296</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>139</v>
+        <v>297</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>140</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7625,49 +8993,49 @@
         <v>13</v>
       </c>
       <c r="C31" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>2902</v>
+        <v>663</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H31" s="7">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I31" s="7">
-        <v>9895</v>
+        <v>1347</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>143</v>
+        <v>291</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="M31" s="7">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="N31" s="7">
-        <v>12797</v>
+        <v>2010</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>147</v>
+        <v>299</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>148</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7676,49 +9044,49 @@
         <v>14</v>
       </c>
       <c r="C32" s="7">
-        <v>996</v>
+        <v>563</v>
       </c>
       <c r="D32" s="7">
-        <v>676474</v>
+        <v>363651</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>149</v>
+        <v>300</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>150</v>
+        <v>301</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>151</v>
+        <v>302</v>
       </c>
       <c r="H32" s="7">
-        <v>1571</v>
+        <v>801</v>
       </c>
       <c r="I32" s="7">
-        <v>947611</v>
+        <v>595647</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>119</v>
+        <v>303</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>152</v>
+        <v>304</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>153</v>
+        <v>305</v>
       </c>
       <c r="M32" s="7">
-        <v>2567</v>
+        <v>1364</v>
       </c>
       <c r="N32" s="7">
-        <v>1624086</v>
+        <v>959299</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>154</v>
+        <v>306</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>155</v>
+        <v>307</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>156</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7727,102 +9095,102 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>1027</v>
+        <v>570</v>
       </c>
       <c r="D33" s="7">
-        <v>696921</v>
+        <v>368165</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H33" s="7">
-        <v>1707</v>
+        <v>826</v>
       </c>
       <c r="I33" s="7">
-        <v>1026202</v>
+        <v>607958</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M33" s="7">
-        <v>2734</v>
+        <v>1396</v>
       </c>
       <c r="N33" s="7">
-        <v>1723124</v>
+        <v>976124</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" s="7">
-        <v>5360</v>
+        <v>4423</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>126</v>
+        <v>253</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>127</v>
+        <v>222</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>128</v>
+        <v>309</v>
       </c>
       <c r="H34" s="7">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I34" s="7">
-        <v>17017</v>
+        <v>13719</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>129</v>
+        <v>310</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>26</v>
+        <v>311</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>130</v>
+        <v>312</v>
       </c>
       <c r="M34" s="7">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N34" s="7">
-        <v>22377</v>
+        <v>18142</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>131</v>
+        <v>313</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>102</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7831,49 +9199,49 @@
         <v>12</v>
       </c>
       <c r="C35" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D35" s="7">
-        <v>12184</v>
+        <v>7908</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="H35" s="7">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="I35" s="7">
-        <v>51679</v>
+        <v>35406</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>136</v>
+        <v>315</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>70</v>
+        <v>316</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>137</v>
+        <v>317</v>
       </c>
       <c r="M35" s="7">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="N35" s="7">
-        <v>63864</v>
+        <v>43314</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>138</v>
+        <v>318</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>139</v>
+        <v>319</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>140</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7882,49 +9250,49 @@
         <v>13</v>
       </c>
       <c r="C36" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" s="7">
-        <v>2902</v>
+        <v>2035</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>114</v>
+        <v>321</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>142</v>
+        <v>322</v>
       </c>
       <c r="H36" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I36" s="7">
-        <v>9895</v>
+        <v>7786</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>143</v>
+        <v>323</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="M36" s="7">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N36" s="7">
-        <v>12797</v>
+        <v>9821</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>146</v>
+        <v>324</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>147</v>
+        <v>289</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>148</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7933,49 +9301,49 @@
         <v>14</v>
       </c>
       <c r="C37" s="7">
-        <v>996</v>
+        <v>433</v>
       </c>
       <c r="D37" s="7">
-        <v>676474</v>
+        <v>267647</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>149</v>
+        <v>326</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>150</v>
+        <v>327</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>151</v>
+        <v>328</v>
       </c>
       <c r="H37" s="7">
-        <v>1571</v>
+        <v>770</v>
       </c>
       <c r="I37" s="7">
-        <v>947611</v>
+        <v>368920</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>119</v>
+        <v>329</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>152</v>
+        <v>330</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>153</v>
+        <v>331</v>
       </c>
       <c r="M37" s="7">
-        <v>2567</v>
+        <v>1203</v>
       </c>
       <c r="N37" s="7">
-        <v>1624086</v>
+        <v>636567</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>154</v>
+        <v>332</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>155</v>
+        <v>333</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>156</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7984,63 +9352,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>457</v>
+      </c>
+      <c r="D38" s="7">
+        <v>282013</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="7">
+        <v>881</v>
+      </c>
+      <c r="I38" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N38" s="7">
+        <v>707844</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>9</v>
+      </c>
+      <c r="D39" s="7">
+        <v>5055</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H39" s="7">
+        <v>30</v>
+      </c>
+      <c r="I39" s="7">
+        <v>15280</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="M39" s="7">
+        <v>39</v>
+      </c>
+      <c r="N39" s="7">
+        <v>20336</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="7">
+        <v>17</v>
+      </c>
+      <c r="D40" s="7">
+        <v>11126</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H40" s="7">
+        <v>89</v>
+      </c>
+      <c r="I40" s="7">
+        <v>44809</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="M40" s="7">
+        <v>106</v>
+      </c>
+      <c r="N40" s="7">
+        <v>55935</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7">
+        <v>5</v>
+      </c>
+      <c r="D41" s="7">
+        <v>2698</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="7">
+        <v>17</v>
+      </c>
+      <c r="I41" s="7">
+        <v>9133</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M41" s="7">
+        <v>22</v>
+      </c>
+      <c r="N41" s="7">
+        <v>11831</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="7">
+        <v>996</v>
+      </c>
+      <c r="D42" s="7">
+        <v>631298</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H42" s="7">
+        <v>1571</v>
+      </c>
+      <c r="I42" s="7">
+        <v>964567</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="M42" s="7">
+        <v>2567</v>
+      </c>
+      <c r="N42" s="7">
+        <v>1595866</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1027</v>
       </c>
-      <c r="D38" s="7">
-        <v>696921</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>650178</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" s="7">
         <v>1707</v>
       </c>
-      <c r="I38" s="7">
-        <v>1026202</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>1033789</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M43" s="7">
         <v>2734</v>
       </c>
-      <c r="N38" s="7">
-        <v>1723124</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>55</v>
+      <c r="N43" s="7">
+        <v>1683968</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
